--- a/Source code/ExperimentDesign.xlsx
+++ b/Source code/ExperimentDesign.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPaper\Cost Optimization for Priority aware Scheduling of Jobs on Cloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYue7\Documents\GitHub\LS-JSP\Source code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FD0240-7C06-4A04-87E1-080AC7DACA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7077BCC2-5049-46D9-866D-A42F7259B9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1950" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,16 +66,16 @@
     <t>{3,4,5}</t>
   </si>
   <si>
-    <t>Randomly-generated test instance</t>
-  </si>
-  <si>
-    <t>Test instances from Google cluster-usage traces</t>
-  </si>
-  <si>
     <t>Time(s)</t>
   </si>
   <si>
     <t>regular-scale datasets</t>
+  </si>
+  <si>
+    <t>Test instances in Google Benchmark</t>
+  </si>
+  <si>
+    <t>Test instances in synthetic Benchmark</t>
   </si>
 </sst>
 </file>
@@ -248,35 +248,47 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,397 +570,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="8" t="s">
+      <c r="F4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="10">
+        <v>100</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>60</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="11">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="10">
+        <v>200</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>120</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="10">
+        <v>300</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>180</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="11">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="10">
+        <v>400</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8">
+        <v>240</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="11">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="12">
+        <v>500</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="13">
+        <v>360</v>
+      </c>
+      <c r="F9" s="13">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="14">
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="I13" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="10">
         <v>100</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8">
         <v>60</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F14" s="8">
         <v>1000</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8">
+        <v>20</v>
+      </c>
+      <c r="I14" s="11">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="10">
+        <v>200</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>200</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="E15" s="8">
         <v>120</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F15" s="8">
         <v>1500</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="8">
+        <v>30</v>
+      </c>
+      <c r="I15" s="11">
         <v>1440</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="10">
         <v>300</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8">
         <v>180</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F16" s="8">
         <v>2000</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="8">
+        <v>40</v>
+      </c>
+      <c r="I16" s="11">
         <v>2880</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="10">
         <v>400</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="8">
+        <v>8</v>
+      </c>
+      <c r="E17" s="8">
         <v>240</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F17" s="8">
         <v>2500</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="8">
+        <v>50</v>
+      </c>
+      <c r="I17" s="11">
         <v>5760</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="12">
         <v>500</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="13">
+        <v>10</v>
+      </c>
+      <c r="E18" s="13">
         <v>360</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F18" s="13">
         <v>3000</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="7">
-        <v>11520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>100</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="G18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="H18" s="13">
         <v>60</v>
       </c>
-      <c r="E13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3">
-        <v>20</v>
-      </c>
-      <c r="H13" s="4">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>200</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>120</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3">
-        <v>30</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>300</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3">
-        <v>180</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3">
-        <v>40</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>400</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3">
-        <v>240</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3">
-        <v>50</v>
-      </c>
-      <c r="H16" s="4">
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5">
-        <v>500</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6">
-        <v>360</v>
-      </c>
-      <c r="E17" s="6">
-        <v>3000</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="6">
-        <v>60</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="I18" s="14">
         <v>11520</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
